--- a/DatHM.xlsx
+++ b/DatHM.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="56">
   <si>
     <t>Column</t>
   </si>
@@ -35,6 +35,15 @@
     <t>1</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
@@ -62,9 +71,6 @@
     <t>19</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
@@ -95,9 +101,6 @@
     <t>29</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>30</t>
   </si>
   <si>
@@ -126,9 +129,6 @@
   </si>
   <si>
     <t>39</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>40</t>
@@ -251,3183 +251,3183 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0027033242963372356</v>
+        <v>0.004979747201150865</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.1196314102564076</v>
+        <v>0.07705417407094035</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03292215147939644</v>
+        <v>0.03342569311206151</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.09251826087763912</v>
+        <v>-0.08487422212118433</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1.0</v>
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.007535235047343</v>
+        <v>-0.005248269727116072</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.7709687500000015</v>
+        <v>-3.574283165672654</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.05088462171830899</v>
+        <v>-0.050347020492171296</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.658462316821694</v>
+        <v>-0.6381900008766718</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>1.0</v>
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.003935377167779099</v>
+        <v>-0.0016731776956280327</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.9068601662887357</v>
+        <v>-2.710174581961388</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.09787460961192354</v>
+        <v>-0.09735276316572146</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.5273571323236522</v>
+        <v>-0.5307928283849574</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>1.0</v>
+      <c r="A5" t="s">
+        <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.025521389892784605</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-1.9759621429453782</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.08812640054607</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.3368150162907623</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.034783610139658645</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.552702825706658</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.19588882144693728</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.5117020111468653</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.02045510201399672</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-5.308011385369621</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.03419083430241483</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-2.914570698108944</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.005909647468542174</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.24016290052113864</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.002130228241808812</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.18209596855772325</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.008612119374528718</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.612827250994016</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.02093092524100687</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.3641516871171184</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.003114594955700242</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-3.8727416883999273</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.10066659187817238</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-3.2425403950786387</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.009273283832178536</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.5381098267515911</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.07400901612059671</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.29361112007287393</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.005758132317027023</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-4.601132597490836</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.07520310509152446</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-1.7763888799271241</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.007572790527034077</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3.8696390726994427</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.12944594353426833</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9921523462885208</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.011072784237084916</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.0607270257687897</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.08848848025239446</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.4235744944915356</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.006182374741269447</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.7461932035514436</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.018251440363020996</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.9936616071998501</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.010776177030042841</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5521623285133945</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.2990312497198092</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-2.1873258337661223</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.005898480545528409</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-1.9361704762787124</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.05186639838669799</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-1.522216612193076</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-5.145949557002508E-4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.9066780520362895</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.1230999252115058</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-1.9179040314422748</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.012561474433318263</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-5.691040222124263</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.1481908226020059</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-4.170281303647353</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.0036661101072154065</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-4.272976347490836</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.044009963090293584</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-2.7101956981089437</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.02954489798600328</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.3142310388728036</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.1761424990309185</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.1145202109819667</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.016593618890507967</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-3.638558165672653</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.029731104370971907</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-2.417333101207982</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.007394495953390668</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-3.369829567187803</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.13068795357637317</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-1.0954797890180343</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.00965638110949203</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.1217189176606783</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.009583187704305173</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.8799377321253481</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.007875386967914006</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-4.130818291641645</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.04310875127290544</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-2.047706640515474</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.019347928289033575</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6.816162857054621</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0038423494539299163</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3.258156574618329</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.02369641313751843</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-5.561587142945383</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.020718256606676023</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-3.1518434253816716</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.007265708074602779</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-4.77974623385447</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-0.04908946872788824</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-1.5557070617453055</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.005875598116175014</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.373591139882903</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.04875625623913556</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.0320143047142831</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.004912313922871469</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.740704334327349</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.09512388935642693</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.9202932075310026</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.00222481392287147</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.4333581656726544</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.045376110643573164</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.5353317924689975</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.010513087336544071</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-4.76343699631781</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0258746935697479</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-2.8889264649376747</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.0020297464708517597</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3.251806796448563</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.005736288847869384</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.3505808170425724</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.023263906353555654</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-3.172647727272726</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-0.08863447151348129</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-0.327865725912605</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.03256552048084582</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.35601724137931007</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-0.19640631343062073</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.5551654261250154</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.018197618474767766</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-6.504696969696969</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.033682763335003536</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-2.9056214077307865</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0036521639293132205</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-1.4368484848484864</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.0016221572743975177</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.19104525893588056</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0062720674078715795</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3.416141666666668</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.020492899055194858</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.30542404681467</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-0.005372078494929194</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-5.069427272727276</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.10015852091076108</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-3.2335911047004813</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.007015800292949585</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.34142424242424335</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.0735009451531854</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.30256041045103127</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.003500648777798071</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-5.797818181818184</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-0.07571117605893575</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-1.7674395895489667</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-7.19048191898895E-4</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2.9753863636363644</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.14131155121379144</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.0759695013601231</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-0.013312493868629587</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.8640414414414421</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-0.08902762775914394</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2.4456087314993544</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.003924891202040495</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-1.942878787878792</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.0177433693956097</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.9847123168216928</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-0.013026696647953437</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-0.6445232558139533</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.2984812744515267</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-2.1760061857434696</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.003635193738534161</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-3.1328560606060605</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.05139324767001269</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-1.5152426198519982</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-0.002772078494929202</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-2.103363636363637</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.12259185424409451</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-1.9089547410641174</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.01034338477450544</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-6.887725806451611</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.14767333061832244</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-4.126817888669202</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-0.005923593646444358</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-5.469661931818184</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.04350189212288229</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-2.7012464077307863</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="n">
-        <v>-0.03180238152523223</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.11754545454545577</v>
-      </c>
-      <c r="E21" t="n">
-        <v>-0.1766505699983298</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2.123469501360124</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.018844138508418564</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-4.835243750000001</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.02918112910268942</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-2.4060134531853294</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.005137012414161716</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-4.5665151515151505</v>
-      </c>
-      <c r="E23" t="n">
-        <v>-0.13119602454378446</v>
-      </c>
-      <c r="F23" t="n">
-        <v>-1.0865304986398772</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.007405861491581435</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-0.07496666666666947</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.009033212436022686</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.8912573801480008</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.00556963235733934</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-5.3275038759689926</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.04259306292162616</v>
-      </c>
-      <c r="F25" t="n">
-        <v>-2.0828256763304047</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" t="n">
-        <v>-0.021605411828262526</v>
-      </c>
-      <c r="D26" t="n">
-        <v>5.6194772727272735</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.003334278486518622</v>
-      </c>
-      <c r="F26" t="n">
-        <v>3.2671058649964864</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-0.02595389667674738</v>
-      </c>
-      <c r="D27" t="n">
-        <v>-6.758272727272731</v>
-      </c>
-      <c r="E27" t="n">
-        <v>-0.02122632757408732</v>
-      </c>
-      <c r="F27" t="n">
-        <v>-3.1428941350035142</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.005008224535373828</v>
-      </c>
-      <c r="D28" t="n">
-        <v>-5.976431818181818</v>
-      </c>
-      <c r="E28" t="n">
-        <v>-0.049597539695299536</v>
-      </c>
-      <c r="F28" t="n">
-        <v>-1.5467577713671483</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.0035852863432659543</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1.176905555555555</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.04825603611861773</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.0122018245924462</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-0.0072063067937308736</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.5440187500000011</v>
-      </c>
-      <c r="E30" t="n">
-        <v>-0.09558299026076292</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1.90098654681467</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" t="n">
-        <v>-0.004518806793730875</v>
-      </c>
-      <c r="D31" t="n">
-        <v>-1.6300437500000022</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.04491700973923718</v>
-      </c>
-      <c r="F31" t="n">
-        <v>-0.5546384531853302</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.008294997677731248</v>
-      </c>
-      <c r="D32" t="n">
-        <v>-5.960122580645158</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.02535720158606445</v>
-      </c>
-      <c r="F32" t="n">
-        <v>-2.845463049959524</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" t="n">
-        <v>-0.004287230010080711</v>
-      </c>
-      <c r="D33" t="n">
-        <v>2.055121212121215</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.0052282178804580895</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1.3595301074207298</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B34" t="s">
-        <v>38</v>
-      </c>
       <c r="C34" t="n">
-        <v>-0.02213561383522179</v>
+        <v>-0.019848648514994863</v>
       </c>
       <c r="D34" t="n">
-        <v>3.7343333333333315</v>
+        <v>4.931018917660679</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.04761568232436955</v>
+        <v>-0.04707808109823186</v>
       </c>
       <c r="F34" t="n">
-        <v>2.8722573801480036</v>
+        <v>2.8925296960930256</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>1.0</v>
+      <c r="A35" t="s">
+        <v>6</v>
       </c>
       <c r="B35" t="s">
         <v>39</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.010469048191898901</v>
+        <v>-0.008211564652669949</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.0339696969696979</v>
+        <v>0.16271588735765005</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.07683238818014794</v>
+        <v>-0.07632431721273664</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6646816225722461</v>
+        <v>0.6557323321940888</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>1.0</v>
+      <c r="A36" t="s">
+        <v>6</v>
       </c>
       <c r="B36" t="s">
         <v>40</v>
       </c>
       <c r="C36" t="n">
-        <v>0.006378659405862323</v>
+        <v>0.008603080432245088</v>
       </c>
       <c r="D36" t="n">
-        <v>-2.0503817271589506</v>
+        <v>-0.8536961428316031</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01881549645769562</v>
+        <v>0.019355144231701846</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.797947042046407</v>
+        <v>-0.8336686932448505</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>1.0</v>
+      <c r="A37" t="s">
+        <v>6</v>
       </c>
       <c r="B37" t="s">
         <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.0032774587543040233</v>
+        <v>-9.804540760307006E-4</v>
       </c>
       <c r="D37" t="n">
-        <v>3.7500000000000018</v>
+        <v>4.94668558432735</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.0467732542681349</v>
+        <v>-0.046347796358856795</v>
       </c>
       <c r="F37" t="n">
-        <v>3.153166471057093</v>
+        <v>3.172059279532559</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>1.0</v>
+      <c r="A38" t="s">
+        <v>6</v>
       </c>
       <c r="B38" t="s">
         <v>42</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.006964649364919418</v>
+        <v>-0.004707165825690467</v>
       </c>
       <c r="D38" t="n">
-        <v>-2.2428445747800616</v>
+        <v>-1.0461589904527138</v>
       </c>
       <c r="E38" t="n">
-        <v>0.12826536353050708</v>
+        <v>0.12877343449791837</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.8758560118363583</v>
+        <v>-1.8848053022145157</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>1.0</v>
+      <c r="A39" t="s">
+        <v>6</v>
       </c>
       <c r="B39" t="s">
         <v>43</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.013633832967430037</v>
+        <v>-0.011415743308617216</v>
       </c>
       <c r="D39" t="n">
-        <v>6.508393749999999</v>
+        <v>7.705079334327347</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.0873218306720001</v>
+        <v>-0.08680433868831665</v>
       </c>
       <c r="F39" t="n">
-        <v>5.3254240468146685</v>
+        <v>5.281960631836518</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>1.0</v>
+      <c r="A40" t="s">
+        <v>6</v>
       </c>
       <c r="B40" t="s">
         <v>44</v>
       </c>
       <c r="C40" t="n">
-        <v>0.014829049059686732</v>
+        <v>0.017086532598915682</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.3388879492600443</v>
+        <v>-0.14220236493269633</v>
       </c>
       <c r="E40" t="n">
-        <v>0.09452349624550381</v>
+        <v>0.09503156721291511</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.1849871582593252</v>
+        <v>-1.1939364486374826</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>1.0</v>
+      <c r="A41" t="s">
+        <v>6</v>
       </c>
       <c r="B41" t="s">
         <v>45</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.013604431485300496</v>
+        <v>-0.011342868573538865</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.9393744186046522</v>
+        <v>0.2573111657226949</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.06066414770987105</v>
+        <v>-0.060237530090134106</v>
       </c>
       <c r="F41" t="n">
-        <v>0.7657612561169955</v>
+        <v>0.7529241498778309</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>1.0</v>
+      <c r="A42" t="s">
+        <v>6</v>
       </c>
       <c r="B42" t="s">
         <v>46</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.0042745450206515346</v>
+        <v>-0.002017061481422583</v>
       </c>
       <c r="D42" t="n">
-        <v>1.6105179704016932</v>
+        <v>2.807203554729041</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.07674077436760383</v>
+        <v>-0.07623270340019253</v>
       </c>
       <c r="F42" t="n">
-        <v>1.9046745753558953</v>
+        <v>1.8957252849777382</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>1.0</v>
+      <c r="A43" t="s">
+        <v>6</v>
       </c>
       <c r="B43" t="s">
         <v>47</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.012408442131292833</v>
+        <v>-0.01015095859206388</v>
       </c>
       <c r="D43" t="n">
-        <v>2.5551515151515147</v>
+        <v>3.7518370994788626</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.056044509392269196</v>
+        <v>-0.0555364384248579</v>
       </c>
       <c r="F43" t="n">
-        <v>2.2480149559055773</v>
+        <v>2.23906566552742</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>1.0</v>
+      <c r="A44" t="s">
+        <v>6</v>
       </c>
       <c r="B44" t="s">
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.01699177546462616</v>
+        <v>-0.01473429192539721</v>
       </c>
       <c r="D44" t="n">
-        <v>5.365545454545454</v>
+        <v>6.562231038872802</v>
       </c>
       <c r="E44" t="n">
-        <v>0.12210700575924592</v>
+        <v>0.12261507672665721</v>
       </c>
       <c r="F44" t="n">
-        <v>2.3057422286328495</v>
+        <v>2.296792938254692</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>1.0</v>
+      <c r="A45" t="s">
+        <v>6</v>
       </c>
       <c r="B45" t="s">
         <v>49</v>
       </c>
       <c r="C45" t="n">
-        <v>7.494320626912354E-5</v>
+        <v>0.002368936077128528</v>
       </c>
       <c r="D45" t="n">
-        <v>-4.960074999999999</v>
+        <v>-3.763389415672651</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.12732049026076303</v>
+        <v>-0.12686138935642705</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.9731384531853319</v>
+        <v>-0.9538317924689992</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>1.0</v>
+      <c r="A46" t="s">
+        <v>6</v>
       </c>
       <c r="B46" t="s">
         <v>50</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.022657274178019774</v>
+        <v>-0.020400268568289623</v>
       </c>
       <c r="D46" t="n">
-        <v>1.995449824561405</v>
+        <v>3.1921354088887526</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.014584375433600591</v>
+        <v>-0.014027903508398297</v>
       </c>
       <c r="F46" t="n">
-        <v>1.6321942222532657</v>
+        <v>1.6273033276217124</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>1.0</v>
+      <c r="A47" t="s">
+        <v>6</v>
       </c>
       <c r="B47" t="s">
         <v>51</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.009347836070686774</v>
+        <v>-0.0070903525314578225</v>
       </c>
       <c r="D47" t="n">
-        <v>2.0371212121212126</v>
+        <v>3.2338067964485604</v>
       </c>
       <c r="E47" t="n">
-        <v>0.01328882394106403</v>
+        <v>0.013796894908475325</v>
       </c>
       <c r="F47" t="n">
-        <v>1.5807422286328507</v>
+        <v>1.5717929382546936</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>1.0</v>
+      <c r="A48" t="s">
+        <v>6</v>
       </c>
       <c r="B48" t="s">
         <v>52</v>
       </c>
       <c r="C48" t="n">
-        <v>0.02747034574749505</v>
+        <v>0.029727829286724003</v>
       </c>
       <c r="D48" t="n">
-        <v>-4.058484848484851</v>
+        <v>-2.861799264157503</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.04601420636196616</v>
+        <v>-0.045506135394554864</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.3913789834883608</v>
+        <v>-1.4003282738665181</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>1.0</v>
+      <c r="A49" t="s">
+        <v>6</v>
       </c>
       <c r="B49" t="s">
         <v>53</v>
       </c>
       <c r="C49" t="n">
-        <v>0.004500648777798077</v>
+        <v>0.006758132317027029</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.6973030303030318</v>
+        <v>0.499382554024316</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.05801420636196597</v>
+        <v>-0.057506135394554674</v>
       </c>
       <c r="F49" t="n">
-        <v>0.7083179862086078</v>
+        <v>0.6993686958304505</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>1.0</v>
+      <c r="A50" t="s">
+        <v>6</v>
       </c>
       <c r="B50" t="s">
         <v>54</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.015340705945909595</v>
+        <v>-0.013083222406680643</v>
       </c>
       <c r="D50" t="n">
-        <v>7.290962566844917</v>
+        <v>8.487648151172264</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004270107363524128</v>
+        <v>0.004778178330935422</v>
       </c>
       <c r="F50" t="n">
-        <v>4.153041693873493</v>
+        <v>4.1440924034953355</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>2.0</v>
+      <c r="A51" t="s">
+        <v>7</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.008753139100989803</v>
+        <v>-0.01076074565185094</v>
       </c>
       <c r="D51" t="n">
-        <v>5.791200757575761</v>
+        <v>5.359959990551753</v>
       </c>
       <c r="E51" t="n">
-        <v>0.012095040392964112</v>
+        <v>0.011624003835584495</v>
       </c>
       <c r="F51" t="n">
-        <v>2.2832445707395084</v>
+        <v>2.2646315950933524</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>2.0</v>
+      <c r="A52" t="s">
+        <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.0033816385084185544</v>
+        <v>-0.005396208980598046</v>
       </c>
       <c r="D52" t="n">
-        <v>-1.480568750000001</v>
+        <v>-1.9118095170240088</v>
       </c>
       <c r="E52" t="n">
-        <v>0.03474283797883169</v>
+        <v>0.034313705722323264</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.4436645201695812</v>
+        <v>-1.4646478534602325</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>2.0</v>
+      <c r="A53" t="s">
+        <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.007213018507297787</v>
+        <v>-0.009220625058158924</v>
       </c>
       <c r="D53" t="n">
-        <v>3.1717829313543615</v>
+        <v>2.740542164330354</v>
       </c>
       <c r="E53" t="n">
-        <v>0.09776707966321768</v>
+        <v>0.09729604310583806</v>
       </c>
       <c r="F53" t="n">
-        <v>0.7247032905910861</v>
+        <v>0.7060903149449302</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>2.0</v>
+      <c r="A54" t="s">
+        <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.005554275464626165</v>
+        <v>-0.007561882015487301</v>
       </c>
       <c r="D54" t="n">
-        <v>4.033443181818182</v>
+        <v>3.6022024147941747</v>
       </c>
       <c r="E54" t="n">
-        <v>0.08401076008993374</v>
+        <v>0.08353972353255412</v>
       </c>
       <c r="F54" t="n">
-        <v>1.2006593434667803</v>
+        <v>1.1820463678206243</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>2.0</v>
+      <c r="A55" t="s">
+        <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.009130490198168481</v>
+        <v>-0.011138096749029618</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.10757366771159903</v>
+        <v>-0.5388144347356068</v>
       </c>
       <c r="E55" t="n">
-        <v>0.06908139096767671</v>
+        <v>0.06861035441029709</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.1025822317683263</v>
+        <v>-1.121195207414482</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>2.0</v>
+      <c r="A56" t="s">
+        <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.007075108797959504</v>
+        <v>-0.009082715348820639</v>
       </c>
       <c r="D56" t="n">
-        <v>1.8372121212121213</v>
+        <v>1.4059713541881136</v>
       </c>
       <c r="E56" t="n">
-        <v>0.05269163130205488</v>
+        <v>0.05222059474467526</v>
       </c>
       <c r="F56" t="n">
-        <v>0.28472184346678003</v>
+        <v>0.2661088678206242</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>2.0</v>
+      <c r="A57" t="s">
+        <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.002620563343414049</v>
+        <v>-0.004628169894275185</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3903333333333314</v>
+        <v>-0.04090743369067631</v>
       </c>
       <c r="E57" t="n">
-        <v>0.06763102524144889</v>
+        <v>0.06715998868406926</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.7886114898665525</v>
+        <v>-0.8072244655127083</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>2.0</v>
+      <c r="A58" t="s">
+        <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.008187230010080713</v>
+        <v>-0.010194836560941847</v>
       </c>
       <c r="D58" t="n">
-        <v>-4.302778787878787</v>
+        <v>-4.734019554902795</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.10039927778885413</v>
+        <v>-0.10087031434623374</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.5226417928968539</v>
+        <v>-1.5412547685430096</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>2.0</v>
+      <c r="A59" t="s">
+        <v>7</v>
       </c>
       <c r="B59" t="s">
         <v>55</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.03142359364644435</v>
+        <v>-0.015970161236266517</v>
       </c>
       <c r="D59" t="n">
-        <v>-2.7901363636363636</v>
+        <v>-1.9358771306603721</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.023293217182793577</v>
+        <v>-0.03551533599125543</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.7257327019877653</v>
+        <v>-0.8440210023092455</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>2.0</v>
+      <c r="A60" t="s">
+        <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.0013720784949291923</v>
+        <v>-0.003379685045790327</v>
       </c>
       <c r="D60" t="n">
-        <v>0.454754545454543</v>
+        <v>0.02351377843053532</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.1315598838494603</v>
+        <v>-0.13203092040683992</v>
       </c>
       <c r="F60" t="n">
-        <v>1.483115782860722</v>
+        <v>1.4645028072145663</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>2.0</v>
+      <c r="A61" t="s">
+        <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C61" t="n">
-        <v>0.010288527565676858</v>
+        <v>0.008280921014815723</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.3609393939393929</v>
+        <v>-0.7921801609634006</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.006308368697944963</v>
+        <v>-0.0067794052553245806</v>
       </c>
       <c r="F61" t="n">
-        <v>0.02290366164859831</v>
+        <v>0.0042906860024424535</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>2.0</v>
+      <c r="A62" t="s">
+        <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.013862987585838291</v>
+        <v>-0.015870594136699428</v>
       </c>
       <c r="D62" t="n">
-        <v>1.9033636363636335</v>
+        <v>1.4721228693396258</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.009520489910066226</v>
+        <v>-0.009991526467445843</v>
       </c>
       <c r="F62" t="n">
-        <v>1.1938127525576911</v>
+        <v>1.1751997769115354</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>2.0</v>
+      <c r="A63" t="s">
+        <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C63" t="n">
-        <v>0.00423549726264656</v>
+        <v>-0.004170766949039482</v>
       </c>
       <c r="D63" t="n">
-        <v>-1.6990681818181812</v>
+        <v>-1.894382516747151</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.09354321718279358</v>
+        <v>-0.08577613350886253</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.13641452016958208</v>
+        <v>-0.06569942691998175</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>2.0</v>
+      <c r="A64" t="s">
+        <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C64" t="n">
-        <v>8.085930857423856E-4</v>
+        <v>-0.0011990134651187504</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.7339828009828004</v>
+        <v>-1.1652235680068082</v>
       </c>
       <c r="E64" t="n">
-        <v>0.056481967092390756</v>
+        <v>0.05601093053501114</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.9530177142727758</v>
+        <v>-0.9716306899189316</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>2.0</v>
+      <c r="A65" t="s">
+        <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.0022569269797776876</v>
+        <v>-0.004264533530638824</v>
       </c>
       <c r="D65" t="n">
-        <v>0.809212121212118</v>
+        <v>0.37797135418810995</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.08088412627370262</v>
+        <v>-0.08135516283108224</v>
       </c>
       <c r="F65" t="n">
-        <v>1.4729036616486015</v>
+        <v>1.4542906860024456</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>2.0</v>
+      <c r="A66" t="s">
+        <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C66" t="n">
-        <v>0.011480211850384408</v>
+        <v>0.009472605299523271</v>
       </c>
       <c r="D66" t="n">
-        <v>0.15861310782240973</v>
+        <v>-0.272627659201598</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.07112091274304727</v>
+        <v>-0.0715919493004269</v>
       </c>
       <c r="F66" t="n">
-        <v>0.4074279745450067</v>
+        <v>0.3888149988988508</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>2.0</v>
+      <c r="A67" t="s">
+        <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C67" t="n">
-        <v>-2.9424963409670354E-4</v>
+        <v>-0.002341250065373969</v>
       </c>
       <c r="D67" t="n">
-        <v>-2.49710606060606</v>
+        <v>-2.928346827630068</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.1912569020988883</v>
+        <v>-0.19171851763999576</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5250854798304175</v>
+        <v>0.4719583795842688</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>2.0</v>
+      <c r="A68" t="s">
+        <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>0.011955194232343523</v>
+        <v>0.009947587681482389</v>
       </c>
       <c r="D68" t="n">
-        <v>-2.0366363636363647</v>
+        <v>-2.4678771306603724</v>
       </c>
       <c r="E68" t="n">
-        <v>0.06896435857478221</v>
+        <v>0.0684933220174026</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.0386114898665504</v>
+        <v>-2.0572244655127063</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>2.0</v>
+      <c r="A69" t="s">
+        <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.007056615225494563</v>
+        <v>-0.009103615656771829</v>
       </c>
       <c r="D69" t="n">
-        <v>3.4864741935483883</v>
+        <v>3.0552334265243806</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.1483087105055353</v>
+        <v>-0.14877032604664275</v>
       </c>
       <c r="F69" t="n">
-        <v>3.053343544346547</v>
+        <v>3.0002164441003982</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>2.0</v>
+      <c r="A70" t="s">
+        <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C70" t="n">
-        <v>0.011349133626282919</v>
+        <v>0.009341527075421782</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.07248011363636632</v>
+        <v>-0.503720880660374</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.14212560354642997</v>
+        <v>-0.1425966401038096</v>
       </c>
       <c r="F70" t="n">
-        <v>1.3827332071031444</v>
+        <v>1.3641202314569885</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>2.0</v>
+      <c r="A71" t="s">
+        <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C71" t="n">
-        <v>0.016379436656585956</v>
+        <v>0.014371830105724816</v>
       </c>
       <c r="D71" t="n">
-        <v>2.5270000000000024</v>
+        <v>2.0957592329759946</v>
       </c>
       <c r="E71" t="n">
-        <v>0.03863102524144883</v>
+        <v>0.03815998868406922</v>
       </c>
       <c r="F71" t="n">
-        <v>0.5629036616486007</v>
+        <v>0.5442906860024448</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>2.0</v>
+      <c r="A72" t="s">
+        <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C72" t="n">
-        <v>0.011079730787710386</v>
+        <v>0.009104952470529358</v>
       </c>
       <c r="D72" t="n">
-        <v>4.165739583333333</v>
+        <v>3.734498816309325</v>
       </c>
       <c r="E72" t="n">
-        <v>0.03753857832809334</v>
+        <v>0.037059690923820256</v>
       </c>
       <c r="F72" t="n">
-        <v>1.8026479798304196</v>
+        <v>1.8127967746842575</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>2.0</v>
+      <c r="A73" t="s">
+        <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C73" t="n">
-        <v>0.02922792150507081</v>
+        <v>0.027220314954209672</v>
       </c>
       <c r="D73" t="n">
-        <v>-5.2651515151515165</v>
+        <v>-5.696392282175524</v>
       </c>
       <c r="E73" t="n">
-        <v>0.07354011615053958</v>
+        <v>0.07306907959315997</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.971641792896855</v>
+        <v>-2.9902547685430108</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>2.0</v>
+      <c r="A74" t="s">
+        <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.008075824767845168</v>
+        <v>-0.010050603085026196</v>
       </c>
       <c r="D74" t="n">
-        <v>5.008111111111107</v>
+        <v>4.5768703440871</v>
       </c>
       <c r="E74" t="n">
-        <v>0.11466288388364886</v>
+        <v>0.11418399647937577</v>
       </c>
       <c r="F74" t="n">
-        <v>1.441863257608195</v>
+        <v>1.4520120524620332</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>2.0</v>
+      <c r="A75" t="s">
+        <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C75" t="n">
-        <v>0.004714884154824157</v>
+        <v>0.0027072776039630208</v>
       </c>
       <c r="D75" t="n">
-        <v>7.517799154334039</v>
+        <v>7.086558387310031</v>
       </c>
       <c r="E75" t="n">
-        <v>0.009576761675557504</v>
+        <v>0.009105725118177886</v>
       </c>
       <c r="F75" t="n">
-        <v>3.2418465791961677</v>
+        <v>3.2232336035500118</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>2.0</v>
+      <c r="A76" t="s">
+        <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0058491336262829294</v>
+        <v>0.0038415270754217938</v>
       </c>
       <c r="D76" t="n">
-        <v>2.434477272727273</v>
+        <v>2.0032365057032653</v>
       </c>
       <c r="E76" t="n">
-        <v>0.12679769190811535</v>
+        <v>0.12632665535073573</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.08073270198776474</v>
+        <v>-0.09934567763392059</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>2.0</v>
+      <c r="A77" t="s">
+        <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C77" t="n">
-        <v>0.005591557868707165</v>
+        <v>0.0035839513178460287</v>
       </c>
       <c r="D77" t="n">
-        <v>6.374818181818179</v>
+        <v>5.943577414794171</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.08712655051612678</v>
+        <v>-0.0875975870735064</v>
       </c>
       <c r="F77" t="n">
-        <v>4.092903661648599</v>
+        <v>4.074290686002443</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>2.0</v>
+      <c r="A78" t="s">
+        <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0070082245353738255</v>
+        <v>0.00500061798451269</v>
       </c>
       <c r="D78" t="n">
-        <v>5.06656818181818</v>
+        <v>4.6353274147941725</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0696840555444791</v>
+        <v>0.06921301898709947</v>
       </c>
       <c r="F78" t="n">
-        <v>1.8008582071031476</v>
+        <v>1.7822452314569917</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>2.0</v>
+      <c r="A79" t="s">
+        <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C79" t="n">
-        <v>0.011589537666686968</v>
+        <v>0.009581931115825832</v>
       </c>
       <c r="D79" t="n">
-        <v>2.7255797979797967</v>
+        <v>2.294339030955789</v>
       </c>
       <c r="E79" t="n">
-        <v>0.07405526766569123</v>
+        <v>0.07358423110831161</v>
       </c>
       <c r="F79" t="n">
-        <v>0.6117117424566807</v>
+        <v>0.5930987668105249</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
-        <v>2.0</v>
+      <c r="A80" t="s">
+        <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0024201563535556493</v>
+        <v>4.125498026945132E-4</v>
       </c>
       <c r="D80" t="n">
-        <v>2.1876278409090903</v>
+        <v>1.7563870738850829</v>
       </c>
       <c r="E80" t="n">
-        <v>0.03133462372629729</v>
+        <v>0.030863587168917673</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3260570707395096</v>
+        <v>0.30744409509335374</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>2.0</v>
+      <c r="A81" t="s">
+        <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C81" t="n">
-        <v>0.003062201808101102</v>
+        <v>0.0010545952572399665</v>
       </c>
       <c r="D81" t="n">
-        <v>-1.0794801136363659</v>
+        <v>-1.5107208806603736</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.029574467182793492</v>
+        <v>-0.030045503740173108</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.2559315656241265</v>
+        <v>-0.2745445412702823</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>2.0</v>
+      <c r="A82" t="s">
+        <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.020843336220363533</v>
+        <v>-0.02282146099022669</v>
       </c>
       <c r="D82" t="n">
-        <v>1.5818592375366594</v>
+        <v>1.1506184705126516</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.0486899033113749</v>
+        <v>-0.04913140961002811</v>
       </c>
       <c r="F82" t="n">
-        <v>1.3008802012380427</v>
+        <v>1.3114888319150664</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>2.0</v>
+      <c r="A83" t="s">
+        <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C83" t="n">
-        <v>-2.872300100807128E-4</v>
+        <v>-0.0022948365609418487</v>
       </c>
       <c r="D83" t="n">
-        <v>-1.6914242424242387</v>
+        <v>-2.122665009448246</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.06921745960703603</v>
+        <v>-0.06968849616441565</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.5210357322907939</v>
+        <v>-0.5396487079369497</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>2.0</v>
+      <c r="A84" t="s">
+        <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C84" t="n">
-        <v>0.02056125483840414</v>
+        <v>0.018553648287543006</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.10512121212121399</v>
+        <v>-0.5363619791452217</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.0828538232433995</v>
+        <v>-0.08332485980077911</v>
       </c>
       <c r="F84" t="n">
-        <v>0.4098733586182978</v>
+        <v>0.39126038297214194</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>2.0</v>
+      <c r="A85" t="s">
+        <v>7</v>
       </c>
       <c r="B85" t="s">
         <v>39</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.0034690481918989</v>
+        <v>-0.005476654742760036</v>
       </c>
       <c r="D85" t="n">
-        <v>3.1580303030303023</v>
+        <v>2.7267895360062946</v>
       </c>
       <c r="E85" t="n">
-        <v>0.09554011615053973</v>
+        <v>0.09506907959316012</v>
       </c>
       <c r="F85" t="n">
-        <v>0.706843055587995</v>
+        <v>0.6882300799418392</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>2.0</v>
+      <c r="A86" t="s">
+        <v>7</v>
       </c>
       <c r="B86" t="s">
         <v>40</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.0016624717895778103</v>
+        <v>-0.0036700783404389464</v>
       </c>
       <c r="D86" t="n">
-        <v>2.5030193423597655</v>
+        <v>2.071778575335758</v>
       </c>
       <c r="E86" t="n">
-        <v>0.11984508068954682</v>
+        <v>0.1193740441321672</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.4840209031483049</v>
+        <v>-0.5026338787944608</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>2.0</v>
+      <c r="A87" t="s">
+        <v>7</v>
       </c>
       <c r="B87" t="s">
         <v>41</v>
       </c>
       <c r="C87" t="n">
-        <v>0.00240973968688899</v>
+        <v>4.0213313602785396E-4</v>
       </c>
       <c r="D87" t="n">
-        <v>0.06118181818181996</v>
+        <v>-0.37005894884218776</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.170217459607036</v>
+        <v>-0.17068849616441562</v>
       </c>
       <c r="F87" t="n">
-        <v>1.0635097222546603</v>
+        <v>1.0448967466085046</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>2.0</v>
+      <c r="A88" t="s">
+        <v>7</v>
       </c>
       <c r="B88" t="s">
         <v>42</v>
       </c>
       <c r="C88" t="n">
-        <v>0.007398986998716938</v>
+        <v>0.005391380447855801</v>
       </c>
       <c r="D88" t="n">
-        <v>1.8266099706744834</v>
+        <v>1.3953692036504757</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.19908940486607798</v>
+        <v>-0.1995604414234576</v>
       </c>
       <c r="F88" t="n">
-        <v>2.5917599666339357</v>
+        <v>2.57314699098778</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>2.0</v>
+      <c r="A89" t="s">
+        <v>7</v>
       </c>
       <c r="B89" t="s">
         <v>43</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0047610654444647455</v>
+        <v>0.0027534588936036094</v>
       </c>
       <c r="D89" t="n">
-        <v>-2.4048153409090927</v>
+        <v>-2.8360561079331004</v>
       </c>
       <c r="E89" t="n">
-        <v>0.08968405554447925</v>
+        <v>0.08921301898709964</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.746869065624129</v>
+        <v>-2.765482041270285</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>2.0</v>
+      <c r="A90" t="s">
+        <v>7</v>
       </c>
       <c r="B90" t="s">
         <v>44</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.016898223667585994</v>
+        <v>-0.01890583021844713</v>
       </c>
       <c r="D90" t="n">
-        <v>8.517475687103593</v>
+        <v>8.086234920079585</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.0014676357874448189</v>
+        <v>-0.0019386723448244366</v>
       </c>
       <c r="F90" t="n">
-        <v>4.108992456574605</v>
+        <v>4.09037948092845</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>2.0</v>
+      <c r="A91" t="s">
+        <v>7</v>
       </c>
       <c r="B91" t="s">
         <v>45</v>
       </c>
       <c r="C91" t="n">
-        <v>0.014264567030088417</v>
+        <v>0.012256960479227282</v>
       </c>
       <c r="D91" t="n">
-        <v>6.2419619450317105</v>
+        <v>5.810721178007703</v>
       </c>
       <c r="E91" t="n">
-        <v>0.1909615396882424</v>
+        <v>0.19049050313086277</v>
       </c>
       <c r="F91" t="n">
-        <v>1.1281045073145628</v>
+        <v>1.109491531668407</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
-        <v>2.0</v>
+      <c r="A92" t="s">
+        <v>7</v>
       </c>
       <c r="B92" t="s">
         <v>46</v>
       </c>
       <c r="C92" t="n">
-        <v>0.009089091342984829</v>
+        <v>0.007081484792123692</v>
       </c>
       <c r="D92" t="n">
-        <v>-1.262027484143762</v>
+        <v>-1.6932682511677697</v>
       </c>
       <c r="E92" t="n">
-        <v>0.08417718450853841</v>
+        <v>0.0837061479511588</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.8949821734465375</v>
+        <v>-1.9135951490926932</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
-        <v>2.0</v>
+      <c r="A93" t="s">
+        <v>7</v>
       </c>
       <c r="B93" t="s">
         <v>47</v>
       </c>
       <c r="C93" t="n">
-        <v>0.009223932184085116</v>
+        <v>0.007176931752807851</v>
       </c>
       <c r="D93" t="n">
-        <v>-4.283439393939394</v>
+        <v>-4.714680160963402</v>
       </c>
       <c r="E93" t="n">
-        <v>0.16934915850717247</v>
+        <v>0.168887542966065</v>
       </c>
       <c r="F93" t="n">
-        <v>-4.519187247442311</v>
+        <v>-4.572314347688459</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
-        <v>2.0</v>
+      <c r="A94" t="s">
+        <v>7</v>
       </c>
       <c r="B94" t="s">
         <v>48</v>
       </c>
       <c r="C94" t="n">
-        <v>0.020735497262646566</v>
+        <v>0.01872789071178543</v>
       </c>
       <c r="D94" t="n">
-        <v>-3.6915454545454547</v>
+        <v>-4.122786221569463</v>
       </c>
       <c r="E94" t="n">
-        <v>0.026570419180842807</v>
+        <v>0.026099382623463188</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.6784599747150377</v>
+        <v>-2.6970729503611937</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>2.0</v>
+      <c r="A95" t="s">
+        <v>7</v>
       </c>
       <c r="B95" t="s">
         <v>49</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.005889502737353439</v>
+        <v>-0.007897109288214575</v>
       </c>
       <c r="D95" t="n">
-        <v>-4.447602272727272</v>
+        <v>-4.878843039751279</v>
       </c>
       <c r="E95" t="n">
-        <v>0.014942578271751767</v>
+        <v>0.01447154171437215</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.206613383805946</v>
+        <v>-2.225226359452102</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
-        <v>2.0</v>
+      <c r="A96" t="s">
+        <v>7</v>
       </c>
       <c r="B96" t="s">
         <v>50</v>
       </c>
       <c r="C96" t="n">
-        <v>0.013692036337606682</v>
+        <v>0.011684429786745545</v>
       </c>
       <c r="D96" t="n">
-        <v>-4.806524720893142</v>
+        <v>-5.23776548791715</v>
       </c>
       <c r="E96" t="n">
-        <v>0.153313640871433</v>
+        <v>0.1528426043140534</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.989026162912803</v>
+        <v>-4.007639138558959</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
-        <v>2.0</v>
+      <c r="A97" t="s">
+        <v>7</v>
       </c>
       <c r="B97" t="s">
         <v>51</v>
       </c>
       <c r="C97" t="n">
-        <v>0.018561254838404134</v>
+        <v>0.016553648287542997</v>
       </c>
       <c r="D97" t="n">
-        <v>-4.157878787878787</v>
+        <v>-4.589119554902795</v>
       </c>
       <c r="E97" t="n">
-        <v>0.006843146453569971</v>
+        <v>0.006372109896190354</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.281641792896855</v>
+        <v>-2.300254768543011</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
-        <v>2.0</v>
+      <c r="A98" t="s">
+        <v>7</v>
       </c>
       <c r="B98" t="s">
         <v>52</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.004984199707050405</v>
+        <v>-0.006991806257911541</v>
       </c>
       <c r="D98" t="n">
-        <v>-1.7773939393939424</v>
+        <v>-2.2086347064179503</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.1164598838494603</v>
+        <v>-0.11693092040683992</v>
       </c>
       <c r="F98" t="n">
-        <v>0.03714608589102478</v>
+        <v>0.018533110244868922</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
-        <v>2.0</v>
+      <c r="A99" t="s">
+        <v>7</v>
       </c>
       <c r="B99" t="s">
         <v>53</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.011681169404020105</v>
+        <v>-0.01368877595488124</v>
       </c>
       <c r="D99" t="n">
-        <v>-1.0568484848484856</v>
+        <v>-1.4880892518724933</v>
       </c>
       <c r="E99" t="n">
-        <v>-0.07982352021309641</v>
+        <v>-0.08029455677047603</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.33679330804837027</v>
+        <v>-0.35540628369452615</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
-        <v>2.0</v>
+      <c r="A100" t="s">
+        <v>7</v>
       </c>
       <c r="B100" t="s">
         <v>54</v>
       </c>
       <c r="C100" t="n">
-        <v>7.502031449994939E-4</v>
+        <v>-0.001257403405861642</v>
       </c>
       <c r="D100" t="n">
-        <v>-3.249491978609627</v>
+        <v>-3.6807327456336347</v>
       </c>
       <c r="E100" t="n">
-        <v>-4.4829739669727253E-4</v>
+        <v>-9.193339540768901E-4</v>
       </c>
       <c r="F100" t="n">
-        <v>-1.8038877822016666</v>
+        <v>-1.8225007578478223</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
-        <v>3.0</v>
+      <c r="A101" t="s">
+        <v>8</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0017923154444647428</v>
+        <v>2.77582064171949E-4</v>
       </c>
       <c r="D101" t="n">
-        <v>-3.1447992424242384</v>
+        <v>-4.154177043508331</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.16051327036103016</v>
+        <v>-0.1606012019041194</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.7463785656307992</v>
+        <v>-0.7231603421632712</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
-        <v>3.0</v>
+      <c r="A102" t="s">
+        <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C102" t="n">
-        <v>0.009070724535373836</v>
+        <v>0.007555991155081042</v>
       </c>
       <c r="D102" t="n">
-        <v>6.116940340909089</v>
+        <v>5.107562539824997</v>
       </c>
       <c r="E102" t="n">
-        <v>0.008268926608666606</v>
+        <v>0.008180995065577385</v>
       </c>
       <c r="F102" t="n">
-        <v>2.0168032525510204</v>
+        <v>2.0400214760185484</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n">
-        <v>3.0</v>
+      <c r="A103" t="s">
+        <v>8</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C103" t="n">
-        <v>0.01633243603815676</v>
+        <v>0.014817702657863968</v>
       </c>
       <c r="D103" t="n">
-        <v>6.417782931354361</v>
+        <v>5.4084051302702685</v>
       </c>
       <c r="E103" t="n">
-        <v>0.06688604163649611</v>
+        <v>0.06679811009340689</v>
       </c>
       <c r="F103" t="n">
-        <v>1.9750801542207792</v>
+        <v>1.9982983776883072</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
-        <v>3.0</v>
+      <c r="A104" t="s">
+        <v>8</v>
       </c>
       <c r="B104" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.019262556793730873</v>
+        <v>-0.02074078084239321</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.9468749999999997</v>
+        <v>-1.9562528010840918</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.011197205774978536</v>
+        <v>-0.011334107381143066</v>
       </c>
       <c r="F104" t="n">
-        <v>-0.8925092474489826</v>
+        <v>-0.8410350728869644</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
-        <v>3.0</v>
+      <c r="A105" t="s">
+        <v>8</v>
       </c>
       <c r="B105" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.02833993128721216</v>
+        <v>-0.029826437806262776</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.2971077586206907</v>
+        <v>-1.3064855597047829</v>
       </c>
       <c r="E105" t="n">
-        <v>0.1335920583200073</v>
+        <v>0.13354767495025194</v>
       </c>
       <c r="F105" t="n">
-        <v>-1.5734553681386345</v>
+        <v>-1.5208430999142324</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
-        <v>3.0</v>
+      <c r="A106" t="s">
+        <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.010893290616141322</v>
+        <v>-0.012408023996434115</v>
       </c>
       <c r="D106" t="n">
-        <v>4.66748484848485</v>
+        <v>3.6581070474007586</v>
       </c>
       <c r="E106" t="n">
-        <v>-0.10164395217921207</v>
+        <v>-0.1017318837223013</v>
       </c>
       <c r="F106" t="n">
-        <v>2.631462343460109</v>
+        <v>2.654680566927637</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
-        <v>3.0</v>
+      <c r="A107" t="s">
+        <v>8</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C107" t="n">
-        <v>-8.023815252322299E-4</v>
+        <v>-0.0023171149055250238</v>
       </c>
       <c r="D107" t="n">
-        <v>1.0465151515151512</v>
+        <v>0.037137350431059056</v>
       </c>
       <c r="E107" t="n">
-        <v>-0.08452274005799992</v>
+        <v>-0.08461067160108914</v>
       </c>
       <c r="F107" t="n">
-        <v>0.6081290101267771</v>
+        <v>0.6313472335943051</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
-        <v>3.0</v>
+      <c r="A108" t="s">
+        <v>8</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C108" t="n">
-        <v>0.003267315444464741</v>
+        <v>0.0017525820641719468</v>
       </c>
       <c r="D108" t="n">
-        <v>1.8183121212121223</v>
+        <v>0.8089343201280301</v>
       </c>
       <c r="E108" t="n">
-        <v>0.08562877509351531</v>
+        <v>0.08554084355042609</v>
       </c>
       <c r="F108" t="n">
-        <v>-0.4049922019944346</v>
+        <v>-0.38177397852690653</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
-        <v>3.0</v>
+      <c r="A109" t="s">
+        <v>8</v>
       </c>
       <c r="B109" t="s">
         <v>55</v>
       </c>
       <c r="C109" t="n">
-        <v>0.031576406353555644</v>
+        <v>0.014761146914718182</v>
       </c>
       <c r="D109" t="n">
-        <v>2.7901363636363636</v>
+        <v>0.645722198915907</v>
       </c>
       <c r="E109" t="n">
-        <v>0.051643926608666686</v>
+        <v>0.06539913376315765</v>
       </c>
       <c r="F109" t="n">
-        <v>0.7773714343692</v>
+        <v>-0.0905997914385889</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
-        <v>3.0</v>
+      <c r="A110" t="s">
+        <v>8</v>
       </c>
       <c r="B110" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C110" t="n">
-        <v>0.00878040074120492</v>
+        <v>0.007348235788340313</v>
       </c>
       <c r="D110" t="n">
-        <v>6.345174999999998</v>
+        <v>5.335797198915905</v>
       </c>
       <c r="E110" t="n">
-        <v>0.024732850207645707</v>
+        <v>0.024574873882957204</v>
       </c>
       <c r="F110" t="n">
-        <v>2.6312199192176875</v>
+        <v>2.7221150733658215</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
-        <v>3.0</v>
+      <c r="A111" t="s">
+        <v>8</v>
       </c>
       <c r="B111" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.017075108797959506</v>
+        <v>-0.0185898421782523</v>
       </c>
       <c r="D111" t="n">
-        <v>0.01951515151515308</v>
+        <v>-0.9898626495689391</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.08246213399739384</v>
+        <v>-0.08255006554048307</v>
       </c>
       <c r="F111" t="n">
-        <v>-0.314901292903528</v>
+        <v>-0.2916830694359999</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
-        <v>3.0</v>
+      <c r="A112" t="s">
+        <v>8</v>
       </c>
       <c r="B112" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C112" t="n">
-        <v>0.010591557868707161</v>
+        <v>0.009076824488414369</v>
       </c>
       <c r="D112" t="n">
-        <v>3.894454545454543</v>
+        <v>2.885076744370451</v>
       </c>
       <c r="E112" t="n">
-        <v>0.06996210842684861</v>
+        <v>0.0698741768837594</v>
       </c>
       <c r="F112" t="n">
-        <v>0.584189616187384</v>
+        <v>0.607407839654912</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
-        <v>3.0</v>
+      <c r="A113" t="s">
+        <v>8</v>
       </c>
       <c r="B113" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.007446320919171623</v>
+        <v>-0.0029266991197603957</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4227500000000006</v>
+        <v>-0.8890606763483611</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0528030175177576</v>
+        <v>0.04034140732773399</v>
       </c>
       <c r="F113" t="n">
-        <v>-1.1814922019944354</v>
+        <v>-1.2331418432203523</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
-        <v>3.0</v>
+      <c r="A114" t="s">
+        <v>8</v>
       </c>
       <c r="B114" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C114" t="n">
-        <v>0.017444956722106022</v>
+        <v>0.01593022334181323</v>
       </c>
       <c r="D114" t="n">
-        <v>-1.8078918918918916</v>
+        <v>-2.8172696929759837</v>
       </c>
       <c r="E114" t="n">
-        <v>0.03360092906566922</v>
+        <v>0.033512997522579996</v>
       </c>
       <c r="F114" t="n">
-        <v>-2.022640850643083</v>
+        <v>-1.999422627175555</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
-        <v>3.0</v>
+      <c r="A115" t="s">
+        <v>8</v>
       </c>
       <c r="B115" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.0014387451615958675</v>
+        <v>-0.0029534785418886614</v>
       </c>
       <c r="D115" t="n">
-        <v>1.1336666666666644</v>
+        <v>0.1242888655825722</v>
       </c>
       <c r="E115" t="n">
-        <v>0.04787119933593947</v>
+        <v>0.04778326779285025</v>
       </c>
       <c r="F115" t="n">
-        <v>-0.47762856563079725</v>
+        <v>-0.45441034216326914</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
-        <v>3.0</v>
+      <c r="A116" t="s">
+        <v>8</v>
       </c>
       <c r="B116" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0275711209412935</v>
+        <v>0.026056387561000705</v>
       </c>
       <c r="D116" t="n">
-        <v>-3.5989323467230454</v>
+        <v>-4.6083101478071375</v>
       </c>
       <c r="E116" t="n">
-        <v>-0.0690019507697688</v>
+        <v>-0.06908988231285802</v>
       </c>
       <c r="F116" t="n">
-        <v>-2.128558798188937</v>
+        <v>-2.105340574721409</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
-        <v>3.0</v>
+      <c r="A117" t="s">
+        <v>8</v>
       </c>
       <c r="B117" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.00222662394947465</v>
+        <v>-0.0037413573297674437</v>
       </c>
       <c r="D117" t="n">
-        <v>5.687757575757575</v>
+        <v>4.678379774673483</v>
       </c>
       <c r="E117" t="n">
-        <v>0.09174998721472717</v>
+        <v>0.09166205567163796</v>
       </c>
       <c r="F117" t="n">
-        <v>1.3087350707328367</v>
+        <v>1.331953294200365</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
-        <v>3.0</v>
+      <c r="A118" t="s">
+        <v>8</v>
       </c>
       <c r="B118" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.008953896676747385</v>
+        <v>-0.010468630057040178</v>
       </c>
       <c r="D118" t="n">
-        <v>4.139999999999999</v>
+        <v>3.1306221989159067</v>
       </c>
       <c r="E118" t="n">
-        <v>-0.20682577036103025</v>
+        <v>-0.20691370190411948</v>
       </c>
       <c r="F118" t="n">
-        <v>3.9581290101267785</v>
+        <v>3.9813472335943065</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
-        <v>3.0</v>
+      <c r="A119" t="s">
+        <v>8</v>
       </c>
       <c r="B119" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.0013253531772361475</v>
+        <v>-0.0028400865575289413</v>
       </c>
       <c r="D119" t="n">
-        <v>3.092046920821116</v>
+        <v>2.082669119737024</v>
       </c>
       <c r="E119" t="n">
-        <v>-0.01939273028282891</v>
+        <v>-0.019480661825918132</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9346294988853302</v>
+        <v>0.9578477223528583</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
-        <v>3.0</v>
+      <c r="A120" t="s">
+        <v>8</v>
       </c>
       <c r="B120" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.004927582967430044</v>
+        <v>-0.006481710228138968</v>
       </c>
       <c r="D120" t="n">
-        <v>6.096356249999998</v>
+        <v>5.086978448915906</v>
       </c>
       <c r="E120" t="n">
-        <v>0.08743270381378414</v>
+        <v>0.08735419328696707</v>
       </c>
       <c r="F120" t="n">
-        <v>1.5179282525510185</v>
+        <v>1.5066323514185538</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
-        <v>3.0</v>
+      <c r="A121" t="s">
+        <v>8</v>
       </c>
       <c r="B121" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C121" t="n">
-        <v>0.015652163929313227</v>
+        <v>0.014137430549020434</v>
       </c>
       <c r="D121" t="n">
-        <v>-2.644545454545453</v>
+        <v>-3.6539232556295453</v>
       </c>
       <c r="E121" t="n">
-        <v>0.12274998721472731</v>
+        <v>0.1226620556716381</v>
       </c>
       <c r="F121" t="n">
-        <v>-2.675810383812616</v>
+        <v>-2.652592160345088</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
-        <v>3.0</v>
+      <c r="A122" t="s">
+        <v>8</v>
       </c>
       <c r="B122" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C122" t="n">
-        <v>0.003855861491581435</v>
+        <v>0.0023341641899702857</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.16364375000000173</v>
+        <v>-1.1730215510840938</v>
       </c>
       <c r="E122" t="n">
-        <v>-0.07814558641152627</v>
+        <v>-0.0781916136537443</v>
       </c>
       <c r="F122" t="n">
-        <v>0.17561575255102077</v>
+        <v>0.19646361837405343</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
-        <v>3.0</v>
+      <c r="A123" t="s">
+        <v>8</v>
       </c>
       <c r="B123" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.034135714858565556</v>
+        <v>-0.03565044823885835</v>
       </c>
       <c r="D123" t="n">
-        <v>9.831666666666667</v>
+        <v>8.822288865582575</v>
       </c>
       <c r="E123" t="n">
-        <v>0.04238635085109078</v>
+        <v>0.04229841930800156</v>
       </c>
       <c r="F123" t="n">
-        <v>4.068735070732838</v>
+        <v>4.091953294200366</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
-        <v>3.0</v>
+      <c r="A124" t="s">
+        <v>8</v>
       </c>
       <c r="B124" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C124" t="n">
-        <v>-9.78139100989807E-4</v>
+        <v>-0.002492872481282601</v>
       </c>
       <c r="D124" t="n">
-        <v>-4.029393939393942</v>
+        <v>-5.038771740478034</v>
       </c>
       <c r="E124" t="n">
-        <v>-0.11342274005800007</v>
+        <v>-0.11351067160108928</v>
       </c>
       <c r="F124" t="n">
-        <v>-1.9958406868429204</v>
+        <v>-1.9726224633753924</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
-        <v>3.0</v>
+      <c r="A125" t="s">
+        <v>8</v>
       </c>
       <c r="B125" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.017557843117903118</v>
+        <v>-0.019072576498195912</v>
       </c>
       <c r="D125" t="n">
-        <v>2.6528900634249473</v>
+        <v>1.6435122623408551</v>
       </c>
       <c r="E125" t="n">
-        <v>-0.135213367260255</v>
+        <v>-0.1353012988033442</v>
       </c>
       <c r="F125" t="n">
-        <v>1.616768897371314</v>
+        <v>1.6399871208388421</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
-        <v>3.0</v>
+      <c r="A126" t="s">
+        <v>8</v>
       </c>
       <c r="B126" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C126" t="n">
-        <v>0.019485497262646558</v>
+        <v>0.017970763882353767</v>
       </c>
       <c r="D126" t="n">
-        <v>1.1194772727272735</v>
+        <v>0.11009947164318135</v>
       </c>
       <c r="E126" t="n">
-        <v>0.016280290245030263</v>
+        <v>0.016192358701941044</v>
       </c>
       <c r="F126" t="n">
-        <v>-0.04217402017625331</v>
+        <v>-0.018955796708725228</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
-        <v>3.0</v>
+      <c r="A127" t="s">
+        <v>8</v>
       </c>
       <c r="B127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C127" t="n">
-        <v>0.02059155786870716</v>
+        <v>0.019076824488414367</v>
       </c>
       <c r="D127" t="n">
-        <v>0.3834545454545422</v>
+        <v>-0.6259232556295499</v>
       </c>
       <c r="E127" t="n">
-        <v>0.09308332054806069</v>
+        <v>0.09299538900497147</v>
       </c>
       <c r="F127" t="n">
-        <v>-0.9394467474489818</v>
+        <v>-0.916228523981454</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
-        <v>3.0</v>
+      <c r="A128" t="s">
+        <v>8</v>
       </c>
       <c r="B128" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C128" t="n">
-        <v>0.006371860899010189</v>
+        <v>0.004857127518717395</v>
       </c>
       <c r="D128" t="n">
-        <v>-1.874431818181818</v>
+        <v>-2.8838096192659104</v>
       </c>
       <c r="E128" t="n">
-        <v>-0.01710607339133338</v>
+        <v>-0.0171940049344226</v>
       </c>
       <c r="F128" t="n">
-        <v>-1.7360376565398878</v>
+        <v>-1.7128194330723596</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
-        <v>3.0</v>
+      <c r="A129" t="s">
+        <v>8</v>
       </c>
       <c r="B129" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.011865007787858485</v>
+        <v>-0.01337974116815128</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.09451111111111227</v>
+        <v>-1.1038889121952045</v>
       </c>
       <c r="E129" t="n">
-        <v>-0.0016439521792121039</v>
+        <v>-0.0017318837223013245</v>
       </c>
       <c r="F129" t="n">
-        <v>-0.26154775754999043</v>
+        <v>-0.23832953408246238</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
-        <v>3.0</v>
+      <c r="A130" t="s">
+        <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C130" t="n">
-        <v>0.004329247262646558</v>
+        <v>0.002814513882353764</v>
       </c>
       <c r="D130" t="n">
-        <v>-2.682190340909092</v>
+        <v>-3.691568141993184</v>
       </c>
       <c r="E130" t="n">
-        <v>0.045271767517757494</v>
+        <v>0.04518383597466827</v>
       </c>
       <c r="F130" t="n">
-        <v>-2.130838792903525</v>
+        <v>-2.107620569435997</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
-        <v>3.0</v>
+      <c r="A131" t="s">
+        <v>8</v>
       </c>
       <c r="B131" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0012440199899192844</v>
+        <v>-2.7071339037350946E-4</v>
       </c>
       <c r="D131" t="n">
-        <v>2.561338068181816</v>
+        <v>1.5519602670977237</v>
       </c>
       <c r="E131" t="n">
-        <v>-0.021546414300424113</v>
+        <v>-0.021634345843513335</v>
       </c>
       <c r="F131" t="n">
-        <v>0.6835362070964746</v>
+        <v>0.7067544305640027</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
-        <v>3.0</v>
+      <c r="A132" t="s">
+        <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C132" t="n">
-        <v>0.01372844213674273</v>
+        <v>0.01220674483513158</v>
       </c>
       <c r="D132" t="n">
-        <v>4.220077419354841</v>
+        <v>3.2106996182707492</v>
       </c>
       <c r="E132" t="n">
-        <v>0.018402195846538304</v>
+        <v>0.018356168604320277</v>
       </c>
       <c r="F132" t="n">
-        <v>1.386166155776826</v>
+        <v>1.4070140215998586</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
-        <v>3.0</v>
+      <c r="A133" t="s">
+        <v>8</v>
       </c>
       <c r="B133" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C133" t="n">
-        <v>0.00480367908082838</v>
+        <v>0.0032889457005355863</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.3636969696969665</v>
+        <v>-1.3730747707810587</v>
       </c>
       <c r="E133" t="n">
-        <v>0.048719684184424225</v>
+        <v>0.048631752641335006</v>
       </c>
       <c r="F133" t="n">
-        <v>-0.8279315959338281</v>
+        <v>-0.8047133724663001</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
-        <v>3.0</v>
+      <c r="A134" t="s">
+        <v>8</v>
       </c>
       <c r="B134" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C134" t="n">
-        <v>5.612548384041381E-4</v>
+        <v>-9.534785418886558E-4</v>
       </c>
       <c r="D134" t="n">
-        <v>-3.6292121212121238</v>
+        <v>-4.638589922296216</v>
       </c>
       <c r="E134" t="n">
-        <v>0.11999241145715164</v>
+        <v>0.11990447991406242</v>
       </c>
       <c r="F134" t="n">
-        <v>-3.271567959570192</v>
+        <v>-3.248349736102664</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
-        <v>3.0</v>
+      <c r="A135" t="s">
+        <v>8</v>
       </c>
       <c r="B135" t="s">
         <v>39</v>
       </c>
       <c r="C135" t="n">
-        <v>0.014167315444464736</v>
+        <v>0.012652582064171941</v>
       </c>
       <c r="D135" t="n">
-        <v>-2.1240606060606066</v>
+        <v>-3.133438407144699</v>
       </c>
       <c r="E135" t="n">
-        <v>-0.03397728551254535</v>
+        <v>-0.03406521705563457</v>
       </c>
       <c r="F135" t="n">
-        <v>-1.3609618989641308</v>
+        <v>-1.3377436754966026</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
-        <v>3.0</v>
+      <c r="A136" t="s">
+        <v>8</v>
       </c>
       <c r="B136" t="s">
         <v>40</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.0087533808804869</v>
+        <v>-0.010268114260779695</v>
       </c>
       <c r="D136" t="n">
-        <v>-2.485798839458415</v>
+        <v>-3.4951766405425073</v>
       </c>
       <c r="E136" t="n">
-        <v>-0.04494504824626568</v>
+        <v>-0.0450329797893549</v>
       </c>
       <c r="F136" t="n">
-        <v>-1.6763713122458854</v>
+        <v>-1.6531530887783574</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="n">
-        <v>3.0</v>
+      <c r="A137" t="s">
+        <v>8</v>
       </c>
       <c r="B137" t="s">
         <v>41</v>
       </c>
       <c r="C137" t="n">
-        <v>0.0015915578687071723</v>
+        <v>7.682448841437834E-5</v>
       </c>
       <c r="D137" t="n">
-        <v>-3.811181818181817</v>
+        <v>-4.820559619265909</v>
       </c>
       <c r="E137" t="n">
-        <v>0.20126513872987883</v>
+        <v>0.2011772071867896</v>
       </c>
       <c r="F137" t="n">
-        <v>-4.206113414115648</v>
+        <v>-4.182895190648119</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="n">
-        <v>3.0</v>
+      <c r="A138" t="s">
+        <v>8</v>
       </c>
       <c r="B138" t="s">
         <v>42</v>
       </c>
       <c r="C138" t="n">
-        <v>-1.716209346072639E-5</v>
+        <v>-0.0015834041423473928</v>
       </c>
       <c r="D138" t="n">
-        <v>0.5087311827956955</v>
+        <v>-0.5006466182883966</v>
       </c>
       <c r="E138" t="n">
-        <v>0.06429767892883392</v>
+        <v>0.06426677551590397</v>
       </c>
       <c r="F138" t="n">
-        <v>-0.7377621596353617</v>
+        <v>-0.7555266942172651</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
-        <v>3.0</v>
+      <c r="A139" t="s">
+        <v>8</v>
       </c>
       <c r="B139" t="s">
         <v>43</v>
       </c>
       <c r="C139" t="n">
-        <v>0.008579247262646562</v>
+        <v>0.007064513882353768</v>
       </c>
       <c r="D139" t="n">
-        <v>-3.5119062500000022</v>
+        <v>-4.521284051084095</v>
       </c>
       <c r="E139" t="n">
-        <v>-0.02492425520951508</v>
+        <v>-0.025012186752604304</v>
       </c>
       <c r="F139" t="n">
-        <v>-2.1710376565398906</v>
+        <v>-2.1478194330723626</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
-        <v>3.0</v>
+      <c r="A140" t="s">
+        <v>8</v>
       </c>
       <c r="B140" t="s">
         <v>44</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.004977859438651112</v>
+        <v>-0.006499556740262262</v>
       </c>
       <c r="D140" t="n">
-        <v>-1.1933697674418628</v>
+        <v>-2.2027475685259548</v>
       </c>
       <c r="E140" t="n">
-        <v>-0.17850125501617747</v>
+        <v>-0.1785472822583955</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9614602292952071</v>
+        <v>0.9823080951182398</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
-        <v>3.0</v>
+      <c r="A141" t="s">
+        <v>8</v>
       </c>
       <c r="B141" t="s">
         <v>45</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.004008160242638855</v>
+        <v>-0.005522893622931649</v>
       </c>
       <c r="D141" t="n">
-        <v>-1.3239471458773793</v>
+        <v>-2.3333249469614716</v>
       </c>
       <c r="E141" t="n">
-        <v>-0.15137404379302455</v>
+        <v>-0.15146197533611377</v>
       </c>
       <c r="F141" t="n">
-        <v>0.5148450073078912</v>
+        <v>0.5380632307754193</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
-        <v>3.0</v>
+      <c r="A142" t="s">
+        <v>8</v>
       </c>
       <c r="B142" t="s">
         <v>46</v>
       </c>
       <c r="C142" t="n">
-        <v>0.006301313578449813</v>
+        <v>0.004816061979154995</v>
       </c>
       <c r="D142" t="n">
-        <v>7.849608879492603</v>
+        <v>6.840231078408511</v>
       </c>
       <c r="E142" t="n">
-        <v>-0.09327502645028353</v>
+        <v>-0.09333342773464635</v>
       </c>
       <c r="F142" t="n">
-        <v>5.074485599274064</v>
+        <v>5.126925429064772</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
-        <v>3.0</v>
+      <c r="A143" t="s">
+        <v>8</v>
       </c>
       <c r="B143" t="s">
         <v>47</v>
       </c>
       <c r="C143" t="n">
-        <v>0.003444511176985809</v>
+        <v>0.0019263783195824496</v>
       </c>
       <c r="D143" t="n">
-        <v>1.2273106060606045</v>
+        <v>0.21793280497651235</v>
       </c>
       <c r="E143" t="n">
-        <v>-0.10468296628969069</v>
+        <v>-0.10470302004305128</v>
       </c>
       <c r="F143" t="n">
-        <v>1.700780525278291</v>
+        <v>1.7272385952966585</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
-        <v>3.0</v>
+      <c r="A144" t="s">
+        <v>8</v>
       </c>
       <c r="B144" t="s">
         <v>48</v>
       </c>
       <c r="C144" t="n">
-        <v>0.005553679080828383</v>
+        <v>0.004038945700535589</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.34599999999999975</v>
+        <v>-1.355377801084092</v>
       </c>
       <c r="E144" t="n">
-        <v>0.01768938115412122</v>
+        <v>0.017601449611031997</v>
       </c>
       <c r="F144" t="n">
-        <v>-0.9489922019944362</v>
+        <v>-0.9257739785269081</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
-        <v>3.0</v>
+      <c r="A145" t="s">
+        <v>8</v>
       </c>
       <c r="B145" t="s">
         <v>49</v>
       </c>
       <c r="C145" t="n">
-        <v>0.006019588171737469</v>
+        <v>0.004504854791444675</v>
       </c>
       <c r="D145" t="n">
-        <v>8.956761363636366</v>
+        <v>7.947383562552273</v>
       </c>
       <c r="E145" t="n">
-        <v>0.09051608569957564</v>
+        <v>0.09042815415648642</v>
       </c>
       <c r="F145" t="n">
-        <v>3.014672570732837</v>
+        <v>3.037890794200365</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
-        <v>3.0</v>
+      <c r="A146" t="s">
+        <v>8</v>
       </c>
       <c r="B146" t="s">
         <v>50</v>
       </c>
       <c r="C146" t="n">
-        <v>0.008873854519424863</v>
+        <v>0.007359121139132068</v>
       </c>
       <c r="D146" t="n">
-        <v>-3.198888357256777</v>
+        <v>-4.2082661583408685</v>
       </c>
       <c r="E146" t="n">
-        <v>-0.010385578973470387</v>
+        <v>-0.010473510516559608</v>
       </c>
       <c r="F146" t="n">
-        <v>-2.0231947538285655</v>
+        <v>-1.9999765303610375</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="n">
-        <v>3.0</v>
+      <c r="A147" t="s">
+        <v>8</v>
       </c>
       <c r="B147" t="s">
         <v>51</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.008984199707050411</v>
+        <v>-0.010498933087343206</v>
       </c>
       <c r="D147" t="n">
-        <v>2.1207575757575756</v>
+        <v>1.1113797746734833</v>
       </c>
       <c r="E147" t="n">
-        <v>-0.03540152793678802</v>
+        <v>-0.03548945947987724</v>
       </c>
       <c r="F147" t="n">
-        <v>0.7114623434601106</v>
+        <v>0.7346805669276386</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="n">
-        <v>3.0</v>
+      <c r="A148" t="s">
+        <v>8</v>
       </c>
       <c r="B148" t="s">
         <v>52</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.022256926979777675</v>
+        <v>-0.02377166036007047</v>
       </c>
       <c r="D148" t="n">
-        <v>5.835878787878785</v>
+        <v>4.826500986794692</v>
       </c>
       <c r="E148" t="n">
-        <v>0.1472045326692727</v>
+        <v>0.1471166011261835</v>
       </c>
       <c r="F148" t="n">
-        <v>1.3647956767934444</v>
+        <v>1.3880139002609724</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="n">
-        <v>3.0</v>
+      <c r="A149" t="s">
+        <v>8</v>
       </c>
       <c r="B149" t="s">
         <v>53</v>
       </c>
       <c r="C149" t="n">
-        <v>0.007409739686888988</v>
+        <v>0.005895006306596193</v>
       </c>
       <c r="D149" t="n">
-        <v>1.7541515151515148</v>
+        <v>0.7447737140674225</v>
       </c>
       <c r="E149" t="n">
-        <v>0.12256816903290925</v>
+        <v>0.12248023748982004</v>
       </c>
       <c r="F149" t="n">
-        <v>-0.36096189896413283</v>
+        <v>-0.3377436754966048</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="n">
-        <v>3.0</v>
+      <c r="A150" t="s">
+        <v>8</v>
       </c>
       <c r="B150" t="s">
         <v>54</v>
       </c>
       <c r="C150" t="n">
-        <v>0.012927770003396661</v>
+        <v>0.011445864856783975</v>
       </c>
       <c r="D150" t="n">
-        <v>-3.70468137254902</v>
+        <v>-4.714059173633112</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.013953032336774288</v>
+        <v>-0.014048814726756972</v>
       </c>
       <c r="F150" t="n">
-        <v>-2.1903291003901564</v>
+        <v>-2.138349106422634</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="n">
-        <v>4.0</v>
+      <c r="A151" t="s">
+        <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.027428879058706498</v>
+        <v>-0.021833911606993637</v>
       </c>
       <c r="D151" t="n">
-        <v>4.026249471458774</v>
+        <v>4.730497250123312</v>
       </c>
       <c r="E151" t="n">
-        <v>-0.04939069535851328</v>
+        <v>-0.048882624391101984</v>
       </c>
       <c r="F151" t="n">
-        <v>3.1474226489353647</v>
+        <v>3.1384733585572078</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="n">
-        <v>4.0</v>
+      <c r="A152" t="s">
+        <v>9</v>
       </c>
       <c r="B152" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.0034235936464443464</v>
+        <v>0.0021713738052685154</v>
       </c>
       <c r="D152" t="n">
-        <v>-9.173431818181816</v>
+        <v>-8.469184039517279</v>
       </c>
       <c r="E152" t="n">
-        <v>-0.07001754525280508</v>
+        <v>-0.0695094742853938</v>
       </c>
       <c r="F152" t="n">
-        <v>-3.6089198457792246</v>
+        <v>-3.6178691361573816</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="n">
-        <v>4.0</v>
+      <c r="A153" t="s">
+        <v>9</v>
       </c>
       <c r="B153" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.018082684555535262</v>
+        <v>-0.012487717103822403</v>
       </c>
       <c r="D153" t="n">
-        <v>2.7842954545454526</v>
+        <v>3.4885432332099904</v>
       </c>
       <c r="E153" t="n">
-        <v>0.07341427292901312</v>
+        <v>0.07392234389642441</v>
       </c>
       <c r="F153" t="n">
-        <v>1.0172165178571413</v>
+        <v>1.008267227478984</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="n">
-        <v>4.0</v>
+      <c r="A154" t="s">
+        <v>9</v>
       </c>
       <c r="B154" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.004046825969676666</v>
+        <v>0.001548141482036196</v>
       </c>
       <c r="D154" t="n">
-        <v>-3.914965656565656</v>
+        <v>-3.2107178779011183</v>
       </c>
       <c r="E154" t="n">
-        <v>-0.04930542404068381</v>
+        <v>-0.048797353073272515</v>
       </c>
       <c r="F154" t="n">
-        <v>-1.8319299467893242</v>
+        <v>-1.8408792371674816</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="n">
-        <v>4.0</v>
+      <c r="A155" t="s">
+        <v>9</v>
       </c>
       <c r="B155" t="s">
         <v>40</v>
       </c>
       <c r="C155" t="n">
-        <v>0.001995372456705072</v>
+        <v>0.007578029320787893</v>
       </c>
       <c r="D155" t="n">
-        <v>4.333382978723403</v>
+        <v>5.037630757387941</v>
       </c>
       <c r="E155" t="n">
-        <v>-0.10983854285613814</v>
+        <v>-0.1093275278211418</v>
       </c>
       <c r="F155" t="n">
-        <v>4.924610134878416</v>
+        <v>4.904875180562762</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="n">
-        <v>4.0</v>
+      <c r="A156" t="s">
+        <v>9</v>
       </c>
       <c r="B156" t="s">
         <v>44</v>
       </c>
       <c r="C156" t="n">
-        <v>0.00637450360514128</v>
+        <v>0.011969471056854142</v>
       </c>
       <c r="D156" t="n">
-        <v>-6.093706131078226</v>
+        <v>-5.389458352413688</v>
       </c>
       <c r="E156" t="n">
-        <v>0.1465353088698165</v>
+        <v>0.14704337983722782</v>
       </c>
       <c r="F156" t="n">
-        <v>-4.211921959944127</v>
+        <v>-4.2208712503222845</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="n">
-        <v>4.0</v>
+      <c r="A157" t="s">
+        <v>9</v>
       </c>
       <c r="B157" t="s">
         <v>45</v>
       </c>
       <c r="C157" t="n">
-        <v>0.0036282033937247798</v>
+        <v>0.009223170845437641</v>
       </c>
       <c r="D157" t="n">
-        <v>-4.064038054968289</v>
+        <v>-3.3597902763037513</v>
       </c>
       <c r="E157" t="n">
-        <v>0.09214630252732188</v>
+        <v>0.09265437349473317</v>
       </c>
       <c r="F157" t="n">
-        <v>-2.890991727385988</v>
+        <v>-2.8999410177641454</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="n">
-        <v>4.0</v>
+      <c r="A158" t="s">
+        <v>9</v>
       </c>
       <c r="B158" t="s">
         <v>46</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.01329191725884715</v>
+        <v>-0.007660440475503837</v>
       </c>
       <c r="D158" t="n">
-        <v>-9.01790930232558</v>
+        <v>-8.313661523661041</v>
       </c>
       <c r="E158" t="n">
-        <v>0.17568047405488182</v>
+        <v>0.1761395749592178</v>
       </c>
       <c r="F158" t="n">
-        <v>-6.056260226328907</v>
+        <v>-6.036953565612573</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="n">
-        <v>4.0</v>
+      <c r="A159" t="s">
+        <v>9</v>
       </c>
       <c r="B159" t="s">
         <v>48</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.008991775464626163</v>
+        <v>-0.0033968080129133005</v>
       </c>
       <c r="D159" t="n">
-        <v>-1.3280000000000014</v>
+        <v>-0.6237522213354635</v>
       </c>
       <c r="E159" t="n">
-        <v>-0.0899720907073505</v>
+        <v>-0.08946401973993921</v>
       </c>
       <c r="F159" t="n">
-        <v>0.8569892451298656</v>
+        <v>0.8480399547517083</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="n">
-        <v>4.0</v>
+      <c r="A160" t="s">
+        <v>9</v>
       </c>
       <c r="B160" t="s">
         <v>50</v>
       </c>
       <c r="C160" t="n">
-        <v>0.030120118644865614</v>
+        <v>0.03575159542820893</v>
       </c>
       <c r="D160" t="n">
-        <v>3.8173298245614053</v>
+        <v>4.521577603225943</v>
       </c>
       <c r="E160" t="n">
-        <v>-0.09915579685495095</v>
+        <v>-0.09869669595061496</v>
       </c>
       <c r="F160" t="n">
-        <v>3.4117866932957366</v>
+        <v>3.4310933540120696</v>
       </c>
     </row>
   </sheetData>
